--- a/mapa_tiempo/coords_ciudades.xlsx
+++ b/mapa_tiempo/coords_ciudades.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juvenalcampos/Documents/GitHub/ig_juvenalcampos.dataviz/mapa_tiempo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B40A6786-00B9-CE44-857D-E7B5F6BF20E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB50ED0D-156F-994C-B39F-04E64D4AF0FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15380" yWindow="940" windowWidth="13120" windowHeight="15340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3840" yWindow="940" windowWidth="24660" windowHeight="15340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="lugares" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>lugar</t>
   </si>
@@ -167,7 +167,34 @@
     <t>https://static.wikia.nocookie.net/espokemon/images/2/24/Altaria.png/revision/latest?cb=20141102005820</t>
   </si>
   <si>
-    <t>https://static.wikia.nocookie.net/espokemon/images/f/f3/Kyogre.png/revision/latest?cb=20150621183339</t>
+    <t>Lluvia moderada</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/espokemon/images/d/d8/Zapdos.png/revision/latest/scale-to-width-down/700?cb=20160316194916</t>
+  </si>
+  <si>
+    <t>https://static.wikia.nocookie.net/espokemon/images/f/fd/Politoed.png/revision/latest/scale-to-width-down/520?cb=20140207185014</t>
+  </si>
+  <si>
+    <t>pokemon_name</t>
+  </si>
+  <si>
+    <t>politoed</t>
+  </si>
+  <si>
+    <t>castform_lluvia</t>
+  </si>
+  <si>
+    <t>altaria</t>
+  </si>
+  <si>
+    <t>zapdos</t>
+  </si>
+  <si>
+    <t>castform_sol</t>
+  </si>
+  <si>
+    <t>castform</t>
   </si>
 </sst>
 </file>
@@ -527,7 +554,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="179" workbookViewId="0">
+    <sheetView zoomScale="179" workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
@@ -929,10 +956,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AB9D57A-852B-3D4F-814C-4450113D53EC}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -940,52 +967,81 @@
     <col min="1" max="1" width="27.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="C2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>40</v>
       </c>
       <c r="B3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>41</v>
       </c>
       <c r="B4" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>42</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+      <c r="C5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>43</v>
       </c>
       <c r="B6" t="s">
         <v>45</v>
+      </c>
+      <c r="C6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
